--- a/biology/Écologie/Indicateur_de_biodiversité/Indicateur_de_biodiversité.xlsx
+++ b/biology/Écologie/Indicateur_de_biodiversité/Indicateur_de_biodiversité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Indicateur_de_biodiversit%C3%A9</t>
+          <t>Indicateur_de_biodiversité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis le Sommet de la terre de Rio et la conférence de Johannesbourg, le suivi de la biodiversité est reconnu comme urgent et nécessaire. Mais il pose des problèmes d'une grande complexité. 
 Il est humainement et techniquement impossible d'appréhender et suivre la biodiversité dans son ensemble ; pour le seul domaine des espèces, seules 1,4 million d'espèces ont été identifiées sur un potentiel de quinze à cent millions (et parmi celles qui sont décrites, seules quelques milliers sont relativement bien suivies). On cherche donc à avoir une idée réaliste de la situation via quelques indicateurs pertinents. 
 Ceux-ci doivent donner une idée juste de l'état de la biodiversité, des pressions qu'elle subit, et de la pertinence des réponses apportées par les actions de protection de la Nature. Il s'agit aussi de mesurer les tendances prospectives, pour éventuellement pouvoir les comparer à des situations que la planète a connues dans le passé. Il s'agit enfin d'aider les décideurs et les citoyens à hiérarchiser les priorités.
-En 2014, un rapport[1] de l'UICN France, dans le cadre de son travail d'accompagnement des collectivités territoriales[2], a proposé un cadre commun d’analyse et de réflexion pour définir leurs indicateurs de biodiversité.
+En 2014, un rapport de l'UICN France, dans le cadre de son travail d'accompagnement des collectivités territoriales, a proposé un cadre commun d’analyse et de réflexion pour définir leurs indicateurs de biodiversité.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Indicateur_de_biodiversit%C3%A9</t>
+          <t>Indicateur_de_biodiversité</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Rappels sur la biodiversité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme de diversité biologique, utilisé dès les années 1960, a été remis au goût du jour et popularisé par Thomas Lovejoy en 1980. Il est désormais supplanté par sa contraction, le terme biodiversité, employé pour la première fois par Walter G. Rosen en 1986.
 D'après le Programme des Nations unies pour l'environnement (PNUE), la diversité biologique, ou biodiversité, est la « variabilité des êtres vivants et des complexes écologiques auxquels ils appartiennent ». Elle inclut la diversité intraspécifique (diversité génétique), la diversité entre espèces (diversité spécifique) et la diversité des écosystèmes (diversité écosystémique).
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Indicateur_de_biodiversit%C3%A9</t>
+          <t>Indicateur_de_biodiversité</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Richesse spécifique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme de richesse spécifique utilisé largement depuis Jaccard (1902) donne le nombre de taxons donné dans un assemblage choisi. C'est la mesure la plus vieille et la plus intuitive de la diversité biologique mais elle n'est pas sans poser certains problèmes. Tout d'abord, il est rarement possible d'obtenir une richesse spécifique absolue, hormis pour des espèces de grande taille (grands mammifères, arbres). Il faut donc se contenter d'une estimation de la richesse spécifique obtenue via des inventaires souvent longs et coûteux à mettre en place. La richesse spécifique est ainsi souvent biaisée par l'intensité de l'effort d'échantillonnage, notamment pour des espèces dont la distribution spatiale est irrégulière.
 </t>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Indicateur_de_biodiversit%C3%A9</t>
+          <t>Indicateur_de_biodiversité</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,21 +597,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diversité spécifique
-La diversité spécifique prend en compte à la fois la richesse spécifique et l'abondance relative des espèces (« equitability ») dans un assemblage donné. Il existe de multiples indices pour mesurer la diversité spécifique qui donnent plus ou moins de poids à chacune de ses deux composantes. Ces indices ont chacun leurs avantages et leurs inconvénients et leur utilisation dépend de l'objectif de l'étude menée.
+          <t>Diversité spécifique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La diversité spécifique prend en compte à la fois la richesse spécifique et l'abondance relative des espèces (« equitability ») dans un assemblage donné. Il existe de multiples indices pour mesurer la diversité spécifique qui donnent plus ou moins de poids à chacune de ses deux composantes. Ces indices ont chacun leurs avantages et leurs inconvénients et leur utilisation dépend de l'objectif de l'étude menée.
 Les indices les plus utilisés sont les indices de Shannon, de Simpson. Hill (1973) a établi une expression synthétique des divers indices proposés ; elle a été analysée par Daget (1981, 2007).
-Diversité taxonomique
-La diversité taxonomique prend en compte des informations phylogénétiques. Elle correspond, selon la définition fournie par Clarke et Warwinck en 1995, à la longueur moyenne du chemin, dans la classification hiérarchique, entre deux organismes choisis aléatoirement dans une communauté et tient donc compte de tous les niveaux taxonomiques (espèces mais aussi genres, familles et ordres). Autrement dit, elle part du principe qu'à richesse spécifique et « équitabilité » égales, la diversité d'une communauté sera plus grande si les espèces appartiennent à de nombreux genres différents que si elles sont toutes du même genre.
-Il existe différentes manières de la mesurer dont l'indice de Clarke et Warwick, le « taxonomic distinctness index » [3] qui est en fait une extension de l'indice de Simpson, robuste vis-à-vis des variations dans l'intensité de l'effort d'échantillonnage.
-Diversité phylogénétique
-La diversité phylogénétique reflète l'histoire évolutive accumulée par une communauté d'espèces et peut donc être mise en relation avec la  résilience des écosystèmes face aux changements environnementaux. La notion de diversité phylogénétique [4] suppose ainsi que l'extinction d'une espèce ayant une longue histoire évolutive et peu d'espèces proches parentes serait davantage préjudiciable en termes de biodiversité que celle d'une espèce ou sous-espèce récemment apparue.
-La diversité phylogénétique est de plus en plus utilisée car il a été montré qu'elle expliquait bien la productivité des écosystèmes [5] et qu'elle représentait une histoire évolutive présentant un intérêt en biologie de la conservation [6],[7].
-Diversité fonctionnelle
-La diversité fonctionnelle peut être définie comme la diversité des traits fonctionnels, i.e. les caractéristiques des organismes (taille, régime alimentaire, couleur) qui déterminent comment les organismes influencent et répondent à leur environnement[8]. 
-L'émergence relativement récente de cette nouvelle facette de la diversité biologique s'appuie sur le constat que la diversité fonctionnelle explique mieux le fonctionnement des écosystèmes (leur productivité, leur résilience) que les autres mesures classiques de diversité[9].
-Il existe différentes façons de mesurer la diversité fonctionnelle[10], la plus simple étant de rassembler les espèces en groupes fonctionnels et de compter le nombre de groupes fonctionnels dans une communauté donnée. Il est également possible d'appliquer les indices de Simpson ou de Shannon aux abondances relatives de ces différents groupes fonctionnels. D'autres méthodes s'appuient quant à elles sur les distances phénotypiques entre espèces
-[pas clair]
-.
 </t>
         </is>
       </c>
@@ -606,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Indicateur_de_biodiversit%C3%A9</t>
+          <t>Indicateur_de_biodiversité</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,18 +630,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Diversité dans l'espace : Diversité alpha, bêta et gamma</t>
+          <t>Les différents types de diversité biologique</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les différents types de diversité ont également été décomposés en trois composantes : locale (diversité α), entre sites (diversité β) et régionale (diversité γ)[11],[12].
-Diversité alpha
-La diversité α est une mesure du nombre d'espèces présentes dans un habitat uniforme de taille fixe à un temps donné.
-Diversité bêta
-La diversité β correspond au taux de remplacement des espèces dans un gradient spatial environnemental — qu'il soit topographique, climatique ou d'habitat — au sein d'une zone géographique donnée.
-Diversité gamma
-La diversité γ est le taux d'addition de nouvelles espèces quand on échantillonne le même habitat en différents endroits. Elle correspond donc à la diversité à l'échelle régionale. Elle est très élevée dans les forêts tropicales humides, et moins élevées dans les milieux extrêmes (très froids, très chauds, très acides...)
+          <t>Diversité taxonomique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La diversité taxonomique prend en compte des informations phylogénétiques. Elle correspond, selon la définition fournie par Clarke et Warwinck en 1995, à la longueur moyenne du chemin, dans la classification hiérarchique, entre deux organismes choisis aléatoirement dans une communauté et tient donc compte de tous les niveaux taxonomiques (espèces mais aussi genres, familles et ordres). Autrement dit, elle part du principe qu'à richesse spécifique et « équitabilité » égales, la diversité d'une communauté sera plus grande si les espèces appartiennent à de nombreux genres différents que si elles sont toutes du même genre.
+Il existe différentes manières de la mesurer dont l'indice de Clarke et Warwick, le « taxonomic distinctness index »  qui est en fait une extension de l'indice de Simpson, robuste vis-à-vis des variations dans l'intensité de l'effort d'échantillonnage.
 </t>
         </is>
       </c>
@@ -643,7 +653,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Indicateur_de_biodiversit%C3%A9</t>
+          <t>Indicateur_de_biodiversité</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -658,13 +668,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Mesure de la biodiversité</t>
+          <t>Les différents types de diversité biologique</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendant longtemps, la mesure de la biodiversité s'est basée sur le nombre d'espèces d'un milieu donné et sur des indices simples ne prenant en compte que le nombre voire la proportion relative de ces différentes espèces. 
-Or, étant donné la complexité de la notion de biodiversité et les nouveaux enjeux liés à son érosion massive et rapide, ce type de mesures a rapidement montré ses limites. Dès lors, de nombreuses études s’intéressant aux différentes facettes de la diversité biologique et aux moyens de les évaluer plus finement ont vu le jour. Les mesures de la biodiversité prennent désormais en compte des aspects phylogénétiques ou fonctionnels, qui se révèlent pertinents en biologie de la conservation notamment.
+          <t>Diversité phylogénétique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La diversité phylogénétique reflète l'histoire évolutive accumulée par une communauté d'espèces et peut donc être mise en relation avec la  résilience des écosystèmes face aux changements environnementaux. La notion de diversité phylogénétique  suppose ainsi que l'extinction d'une espèce ayant une longue histoire évolutive et peu d'espèces proches parentes serait davantage préjudiciable en termes de biodiversité que celle d'une espèce ou sous-espèce récemment apparue.
+La diversité phylogénétique est de plus en plus utilisée car il a été montré qu'elle expliquait bien la productivité des écosystèmes  et qu'elle représentait une histoire évolutive présentant un intérêt en biologie de la conservation ,.
 </t>
         </is>
       </c>
@@ -675,7 +691,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Indicateur_de_biodiversit%C3%A9</t>
+          <t>Indicateur_de_biodiversité</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -690,10 +706,232 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Les différents types de diversité biologique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Diversité fonctionnelle</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diversité fonctionnelle peut être définie comme la diversité des traits fonctionnels, i.e. les caractéristiques des organismes (taille, régime alimentaire, couleur) qui déterminent comment les organismes influencent et répondent à leur environnement. 
+L'émergence relativement récente de cette nouvelle facette de la diversité biologique s'appuie sur le constat que la diversité fonctionnelle explique mieux le fonctionnement des écosystèmes (leur productivité, leur résilience) que les autres mesures classiques de diversité.
+Il existe différentes façons de mesurer la diversité fonctionnelle, la plus simple étant de rassembler les espèces en groupes fonctionnels et de compter le nombre de groupes fonctionnels dans une communauté donnée. Il est également possible d'appliquer les indices de Simpson ou de Shannon aux abondances relatives de ces différents groupes fonctionnels. D'autres méthodes s'appuient quant à elles sur les distances phénotypiques entre espèces
+[pas clair]
+.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Indicateur_de_biodiversité</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Indicateur_de_biodiversit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Diversité dans l'espace : Diversité alpha, bêta et gamma</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les différents types de diversité ont également été décomposés en trois composantes : locale (diversité α), entre sites (diversité β) et régionale (diversité γ),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Indicateur_de_biodiversité</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Indicateur_de_biodiversit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Diversité dans l'espace : Diversité alpha, bêta et gamma</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Diversité alpha</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La diversité α est une mesure du nombre d'espèces présentes dans un habitat uniforme de taille fixe à un temps donné.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Indicateur_de_biodiversité</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Indicateur_de_biodiversit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Diversité dans l'espace : Diversité alpha, bêta et gamma</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Diversité bêta</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La diversité β correspond au taux de remplacement des espèces dans un gradient spatial environnemental — qu'il soit topographique, climatique ou d'habitat — au sein d'une zone géographique donnée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Indicateur_de_biodiversité</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Indicateur_de_biodiversit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Diversité dans l'espace : Diversité alpha, bêta et gamma</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Diversité gamma</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La diversité γ est le taux d'addition de nouvelles espèces quand on échantillonne le même habitat en différents endroits. Elle correspond donc à la diversité à l'échelle régionale. Elle est très élevée dans les forêts tropicales humides, et moins élevées dans les milieux extrêmes (très froids, très chauds, très acides...)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Indicateur_de_biodiversité</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Indicateur_de_biodiversit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Mesure de la biodiversité</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendant longtemps, la mesure de la biodiversité s'est basée sur le nombre d'espèces d'un milieu donné et sur des indices simples ne prenant en compte que le nombre voire la proportion relative de ces différentes espèces. 
+Or, étant donné la complexité de la notion de biodiversité et les nouveaux enjeux liés à son érosion massive et rapide, ce type de mesures a rapidement montré ses limites. Dès lors, de nombreuses études s’intéressant aux différentes facettes de la diversité biologique et aux moyens de les évaluer plus finement ont vu le jour. Les mesures de la biodiversité prennent désormais en compte des aspects phylogénétiques ou fonctionnels, qui se révèlent pertinents en biologie de la conservation notamment.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Indicateur_de_biodiversité</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Indicateur_de_biodiversit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Lacunes de connaissance</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Elles ont plusieurs explications, dont ;
 importance du nombre estimé de taxons (plus de 30 microbiennes du sol) ;
@@ -704,31 +942,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Indicateur_de_biodiversit%C3%A9</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Indicateur_de_biodiversit%C3%A9</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Indicateur_de_biodiversité</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Indicateur_de_biodiversit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Quels indicateurs de biodiversité ?</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">Des efforts sont faits pour constituer des référentiels partagés d'indicateurs de biodiversité. Ces efforts sont récents mais nombreux et intenses. 
 Ces indicateurs sont nécessaires pour comprendre les principes qui régissent l'évolution de la biodiversité, la vitesse et l'ampleur des changements induits par les activités humaines, directs et indirects (ex : impact de l'augmentation des UV lié au trou de la couche d'ozone et impacts des modifications climatiques).
@@ -738,44 +978,84 @@
 variables décrivant le caractère fonctionnel de la biodiversité, comme élément fondamental des écosystèmes (ex. : état des réseaux trophiques, du maillage écologique, ou la résilience des différents services écosystémiques) ;
 état - pression - réponse (Les pressions sont décrites par des variables « négatives » (ex : espèces invasives, pollution lumineuse, fragmentation écologique et isolats génétiques...). Des seuils sont proposés ou validés, indiquant des degrés de menace directe ou indirectes, immédiates ou différées et des niveaux de gravité) ;
 diversité biologique dans la nature « banale » et/ou domestiquée (espèces élevées et cultivées), qui elle aussi peut se dégrader.
-Finalement, pour combler le manque d'indicateurs d'état faisant référence universelle, le GEO-BON (Group on Earth Observaion – Biodiversity Observation Network) a défini en 2013 un ensemble de variables essentielles de la biodiversité[13] (VEB/EBV), à l'image des variables climatiques essentielles. Ces 21 EBV[14], organisées en 6 classes allant de la diversité génétique des espèces à la diversité écosystémique globale en passant par la composition et la fonctionnalité des communautés d'espèces, constituent l'ensemble nécessaire et suffisant des variables mesurables ou déductibles de mesures in situ, qui permettent de décrire et de prédire l'état et la dynamique de la biodiversité, et d'harmoniser les efforts de surveillance, de recherche, de prévision et de gestion dans ce domaine par nature très divers.
-L'IPBES utilise le cadre conceptuel des EBV pour son analyse périodique des statuts et tendances de la biodiversité globale[15]. En France, l'Observatoire national de la biodiversité rassemble un jeu d'indicateurs alignés sur les EBV, destinés à suivre la biodiversité: son état, les pressions et les menaces qui pèsent sur elle, et les réponses de la société[16],[17]; le cadre EBV est également le cadre conceptuel retenu pour le Programme national de surveillance de la biodiversité terrestre[18].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Indicateur_de_biodiversit%C3%A9</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Indicateur_de_biodiversit%C3%A9</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+Finalement, pour combler le manque d'indicateurs d'état faisant référence universelle, le GEO-BON (Group on Earth Observaion – Biodiversity Observation Network) a défini en 2013 un ensemble de variables essentielles de la biodiversité (VEB/EBV), à l'image des variables climatiques essentielles. Ces 21 EBV, organisées en 6 classes allant de la diversité génétique des espèces à la diversité écosystémique globale en passant par la composition et la fonctionnalité des communautés d'espèces, constituent l'ensemble nécessaire et suffisant des variables mesurables ou déductibles de mesures in situ, qui permettent de décrire et de prédire l'état et la dynamique de la biodiversité, et d'harmoniser les efforts de surveillance, de recherche, de prévision et de gestion dans ce domaine par nature très divers.
+L'IPBES utilise le cadre conceptuel des EBV pour son analyse périodique des statuts et tendances de la biodiversité globale. En France, l'Observatoire national de la biodiversité rassemble un jeu d'indicateurs alignés sur les EBV, destinés à suivre la biodiversité: son état, les pressions et les menaces qui pèsent sur elle, et les réponses de la société,; le cadre EBV est également le cadre conceptuel retenu pour le Programme national de surveillance de la biodiversité terrestre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Indicateur_de_biodiversité</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Indicateur_de_biodiversit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Qu'est-ce qu'un indicateur de biodiversité ?</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Définition
-De manière générale, un indicateur est le résumé d'une information complexe qui offre la possibilité aux différents acteurs (scientifiques, gestionnaires, politiques et citoyens) de dialoguer entre eux.
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Définition</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De manière générale, un indicateur est le résumé d'une information complexe qui offre la possibilité aux différents acteurs (scientifiques, gestionnaires, politiques et citoyens) de dialoguer entre eux.
 Un indicateur de biodiversité doit permettre de quantifier la biodiversité et ses variations de répartition spatio-temporelle. Il doit aider à évaluer quantitativement et qualitativement l'état de santé et la richesse du monde vivant.
 Cependant, un indicateur est toujours un modèle de la réalité, non la réalité elle-même ; c'est pourquoi il doit être accompagné d'informations qualitatives et de commentaires.
-Rôle de l'indicateur
-Des indicateurs synthétiques facilitent la communication, notamment par un langage et référentiel commun.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Indicateur_de_biodiversité</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Indicateur_de_biodiversit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Qu'est-ce qu'un indicateur de biodiversité ?</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Rôle de l'indicateur</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Des indicateurs synthétiques facilitent la communication, notamment par un langage et référentiel commun.
 Évaluation des politiques de conservation
 Évaluation de la compensation d'impacts  En fournissant des données quantifiées, il permet de déterminer concrètement le nombre et la qualité des dispositifs à mettre en place lors de la perturbation d'un milieu par l'humain et ses activités.
 Identification des mécanismes propres à la biodiversité
@@ -784,9 +1064,43 @@
 Pour l'UICN France, cet indicateur doit permettre de :
 mieux connaître et suivre l’état de la biodiversité sur chaque territoire (caractéristiques de la biodiversité, pressions qui s’exercent sur elle, impacts sur les services qu’elle fournit), et ses enjeux ;
 suivre et évaluer les dispositifs et moyens qu’elles mettent en œuvre pour y répondre ;
-rapporter et communiquer sur leur implication pour préserver la biodiversité et les progrès accomplis ;
-Caractéristiques de l'indicateur
-Un indicateur efficace doit répondre à plusieurs critères :
+rapporter et communiquer sur leur implication pour préserver la biodiversité et les progrès accomplis ;</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Indicateur_de_biodiversité</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Indicateur_de_biodiversit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Qu'est-ce qu'un indicateur de biodiversité ?</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Caractéristiques de l'indicateur</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Un indicateur efficace doit répondre à plusieurs critères :
 robuste, fiable, précis : il doit refléter effectivement les variations de ce qu'il est censé synthétiser ;
 compréhensible et utilisable par tous les acteurs (Protocole simple et applicable d'année en année) ;
 met en évidence les liens entre les différents composants de l'écosystème ;
@@ -794,36 +1108,73 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Indicateur_de_biodiversit%C3%A9</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Indicateur_de_biodiversit%C3%A9</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Indicateur_de_biodiversité</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Indicateur_de_biodiversit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Le modèle Pression, État, Réponse</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Le modèle Pression, État, Réponse a été mis en place par l'Organisation de coopération et de développement économiques (OCDE). Il a servi de base pour de nombreux travaux sur les indicateurs de biodiversité.
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le modèle Pression, État, Réponse a été mis en place par l'Organisation de coopération et de développement économiques (OCDE). Il a servi de base pour de nombreux travaux sur les indicateurs de biodiversité.
 Ce modèle est basé sur la notion de causalité : les humains et leurs activités exercent des pressions sur les écosystèmes et modifient leur qualité et leur quantité. La société répond à ces modifications par différentes mesures de protection, de dépollution.
-Indicateurs de pression
-Ils visent généralement à identifier les causes d'altérations écologiques aux échelles génétique, spécifiques et écopaysagères. On distingue les pressions directes (pollutions, prélèvement) des pressions indirectes (activités humaines à l'origine des altérations). La rapidité de la progression d'un phénomène peut aussi être un indicateur pertinent.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Indicateur_de_biodiversité</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Indicateur_de_biodiversit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Le modèle Pression, État, Réponse</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Indicateurs de pression</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Ils visent généralement à identifier les causes d'altérations écologiques aux échelles génétique, spécifiques et écopaysagères. On distingue les pressions directes (pollutions, prélèvement) des pressions indirectes (activités humaines à l'origine des altérations). La rapidité de la progression d'un phénomène peut aussi être un indicateur pertinent.
 Exemples :
 diversité génétique (intraspécifique et spécifique) ;
 modifications de paramètres concernant les individus d'une espèces considérée comme représentative (indicatrice) d'un milieu, d'une fonction, d'une niche écologique, etc ;
@@ -841,16 +1192,84 @@
 Effort de pêche
 Invasion biologique (nombre d'espèces, surfaces concernées, coût des invasions biologiques)
 Pollutions
-ex. : Apport en azote et/ou phosphore (eutrophisation, dystrophisation)
-Indicateurs de réponse
-Ils illustrent l'état d'avancement des mesures prises en faveur de la restauration, de la protection et/ou de la gestion des écosystèmes et de la biodiversité.
+ex. : Apport en azote et/ou phosphore (eutrophisation, dystrophisation)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Indicateur_de_biodiversité</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Indicateur_de_biodiversit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Le modèle Pression, État, Réponse</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Indicateurs de réponse</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Ils illustrent l'état d'avancement des mesures prises en faveur de la restauration, de la protection et/ou de la gestion des écosystèmes et de la biodiversité.
 Exemples :
 zones protégées :
 Nombre de sites,
 Surface des sites ;
-efficacité de gestion des zones protégées.
-Indicateurs d'état
-Ils se rapportent à la qualité et la quantité de la diversité génétique, spécifique et écosystémique.
+efficacité de gestion des zones protégées.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Indicateur_de_biodiversité</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Indicateur_de_biodiversit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Le modèle Pression, État, Réponse</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Indicateurs d'état</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Ils se rapportent à la qualité et la quantité de la diversité génétique, spécifique et écosystémique.
 Exemple :
 état de la diversité intraspécifique (indice de diversité génétique) :
 changement de la diversité génétique des espèces animales et végétales domestiquées,
@@ -867,34 +1286,39 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Indicateur_de_biodiversit%C3%A9</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Indicateur_de_biodiversit%C3%A9</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Indicateur_de_biodiversité</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Indicateur_de_biodiversit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Les bio-indicateurs</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Définition
-Un bioindicateur est un élément appartenant au monde du vivant (molécule, végétal, animal, fongique…) donnant des informations sur son milieu et son environnement. Du fait de leurs particularités écologiques, ces bioindicateurs constituent l'indice précoce de modifications biotiques ou abiotiques de l'environnement dues à des activités humaines.
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Définition</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un bioindicateur est un élément appartenant au monde du vivant (molécule, végétal, animal, fongique…) donnant des informations sur son milieu et son environnement. Du fait de leurs particularités écologiques, ces bioindicateurs constituent l'indice précoce de modifications biotiques ou abiotiques de l'environnement dues à des activités humaines.
 On distingue deux types de bioindicateur.
 Bioindicateur d'accumulationIl s'agit d'organisme, partie d'organisme ou communauté d'organismes qui accumulent certaines substances présentes dans son environnement.
 Bioindicateur d'effet ou d'impactIl s'agit d'organisme, partie d'organisme ou communauté d'organismes qui présentent des modifications ou non en fonction de leur exposition à diverses substances présentes dans leur environnement. Ces modifications proportionnelles ou non à l'exposition se traduisent entre autres, par des modifications d'ordre morphologique, cellulaire, comportementale, etc.
@@ -903,36 +1327,38 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Indicateur_de_biodiversit%C3%A9</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Indicateur_de_biodiversit%C3%A9</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Indicateur_de_biodiversité</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Indicateur_de_biodiversit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Acteurs des indicateurs de la biodiversité</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>À échelle mondiale, c'est le World Conservation Monitoring Center qui centralise la plupart des données principalement regroupées par, d'une part, de grandes institutions (muséums) et ONG, comme le World Wildlife Fund (WWF), l'Union mondiale pour la Nature (IUCN) ou le Programme des Nations unies pour l'environnement (UNEP), et, d'autre part, par des réseaux d'amateurs et diverses institutions et associations (Ligue pour la protection des oiseaux, Inventaire national du patrimoine naturel, Institut Français de la Biodiversité, etc.)
 Les citoyens naturalistes ont aussi un rôle essentiel à jouer dans la récolte des données sur de larges territoires.
 Une expérience de comptage des papillons par les particuliers déjà réalisée en Grande-Bretagne a été lancée en France par le Muséum national d'histoire naturelle et Noé conservation. L’« Observatoire des Papillons des jardins », première expérience d’observatoire grand public de la biodiversité en France, est un des outils pour construire dans un futur proche des actions de protection des papillons et de la biodiversité en général. En 2008, pour mieux suivre les réponses phénologiques aux changements climatiques, le CNRS a en mars 2008 proposé d'associer tous les jardiniers de France volontaires à un « observatoire des saisons ».
-À titre d'exemple, l'Union européenne a retenu vingt-six indicateurs de la biodiversité[19] évaluant des tendances à améliorer ou « stabiliser » avant 2010 (dans le cadre du Processus SEBI 2010)
+À titre d'exemple, l'Union européenne a retenu vingt-six indicateurs de la biodiversité évaluant des tendances à améliorer ou « stabiliser » avant 2010 (dans le cadre du Processus SEBI 2010)
 1 Abondance et répartition d’espèces (sélectionnées pour leur représentativité et en fonction de la disponibilité de données)
 2 Liste rouge européenne des espèces menacées
 3 espèces d'intérêt européen (dite d'« intérêt communautaire »)
